--- a/burndown.xlsx
+++ b/burndown.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Fonctionnalités</t>
   </si>
@@ -151,6 +151,27 @@
   </si>
   <si>
     <t>Total restant actuel</t>
+  </si>
+  <si>
+    <t>FBD2</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>Lundi 16 Juin</t>
+  </si>
+  <si>
+    <t>Mardi 17 Juin</t>
+  </si>
+  <si>
+    <t>Mercredi 18 Juin</t>
+  </si>
+  <si>
+    <t>Préparation soutenance</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -196,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +254,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -396,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -437,11 +464,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -531,7 +576,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$15</c:f>
+              <c:f>Sheet1!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -555,10 +600,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$10:$Q$10</c:f>
+              <c:f>Sheet1!$C$19:$T$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -603,60 +648,78 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$15:$Q$15</c:f>
+              <c:f>Sheet1!$C$24:$T$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.5</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.5</c:v>
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +731,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$16</c:f>
+              <c:f>Sheet1!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -686,10 +749,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$10:$Q$10</c:f>
+              <c:f>Sheet1!$C$19:$T$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -734,60 +797,78 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$Q$16</c:f>
+              <c:f>Sheet1!$C$25:$T$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>26.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>16.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>6.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1.5</c:v>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -802,11 +883,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="84758912"/>
-        <c:axId val="84327040"/>
+        <c:axId val="133431680"/>
+        <c:axId val="133433600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84758912"/>
+        <c:axId val="133431680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,12 +897,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84327040"/>
+        <c:crossAx val="133433600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84327040"/>
+        <c:axId val="133433600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,7 +913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84758912"/>
+        <c:crossAx val="133431680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -859,14 +940,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>254921</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>154067</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>157370</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>470646</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -890,24 +971,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B9:Q16" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <tableColumns count="16">
-    <tableColumn id="1" name="Date" dataDxfId="17"/>
-    <tableColumn id="2" name="Lundi 26 Mai" dataDxfId="16"/>
-    <tableColumn id="3" name="Mardi 27 Mai" dataDxfId="15"/>
-    <tableColumn id="4" name="Mercredi 28 Mai" dataDxfId="14"/>
-    <tableColumn id="5" name="Jeudi 29 Mai" dataDxfId="13"/>
-    <tableColumn id="6" name="Vendredi 30 Mai" dataDxfId="12"/>
-    <tableColumn id="7" name="Lundi 2 Juin" dataDxfId="11"/>
-    <tableColumn id="8" name="Mardi 3 Juin" dataDxfId="10"/>
-    <tableColumn id="9" name="Mercredi 4 Juin" dataDxfId="9"/>
-    <tableColumn id="10" name="Jeudi 5 Juin" dataDxfId="8"/>
-    <tableColumn id="11" name="Vendredi 6 Juin" dataDxfId="7"/>
-    <tableColumn id="12" name="Lundi 9 Juin" dataDxfId="6"/>
-    <tableColumn id="13" name="Mardi 10 Juin" dataDxfId="5"/>
-    <tableColumn id="14" name="Mercredi 11 Juin" dataDxfId="4"/>
-    <tableColumn id="15" name="Jeudi 12 Juin" dataDxfId="3"/>
-    <tableColumn id="16" name="Vendredi 13 Juin" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B18:T25" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <tableColumns count="19">
+    <tableColumn id="1" name="Date" dataDxfId="18"/>
+    <tableColumn id="2" name="Lundi 26 Mai" dataDxfId="17"/>
+    <tableColumn id="3" name="Mardi 27 Mai" dataDxfId="16"/>
+    <tableColumn id="4" name="Mercredi 28 Mai" dataDxfId="15"/>
+    <tableColumn id="5" name="Jeudi 29 Mai" dataDxfId="14"/>
+    <tableColumn id="6" name="Vendredi 30 Mai" dataDxfId="13"/>
+    <tableColumn id="7" name="Lundi 2 Juin" dataDxfId="12"/>
+    <tableColumn id="8" name="Mardi 3 Juin" dataDxfId="11"/>
+    <tableColumn id="9" name="Mercredi 4 Juin" dataDxfId="10"/>
+    <tableColumn id="10" name="Jeudi 5 Juin" dataDxfId="9"/>
+    <tableColumn id="11" name="Vendredi 6 Juin" dataDxfId="8"/>
+    <tableColumn id="12" name="Lundi 9 Juin" dataDxfId="7"/>
+    <tableColumn id="13" name="Mardi 10 Juin" dataDxfId="6"/>
+    <tableColumn id="14" name="Mercredi 11 Juin" dataDxfId="5"/>
+    <tableColumn id="15" name="Jeudi 12 Juin" dataDxfId="4"/>
+    <tableColumn id="16" name="Vendredi 13 Juin" dataDxfId="3"/>
+    <tableColumn id="17" name="Lundi 16 Juin" dataDxfId="2"/>
+    <tableColumn id="18" name="Mardi 17 Juin" dataDxfId="1"/>
+    <tableColumn id="19" name="Mercredi 18 Juin" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1200,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q1048576"/>
+  <dimension ref="B1:T1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" activeCellId="1" sqref="B10:Q10 B15:Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1301,7 @@
     <col min="17" max="17" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1265,23 +1349,23 @@
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="19">
         <v>1.5</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="19">
         <v>1</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="19">
         <v>1</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="19">
         <v>1</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="19">
         <v>2</v>
       </c>
       <c r="H3" s="10">
@@ -1295,11 +1379,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="19">
         <v>3</v>
       </c>
       <c r="D4" s="10">
@@ -1317,19 +1401,23 @@
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="20">
         <v>1.5</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12">
+      <c r="E5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="20">
         <v>1</v>
       </c>
       <c r="H5" s="13"/>
@@ -1337,19 +1425,19 @@
       <c r="J5" s="13"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="18">
         <v>9</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1358,343 +1446,425 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="Q18" s="17" t="s">
         <v>31</v>
       </c>
+      <c r="R18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C19" s="17">
         <v>1</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D19" s="17">
         <v>2</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E19" s="17">
         <v>3</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F19" s="17">
         <v>4</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G19" s="17">
         <v>5</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H19" s="17">
         <v>6</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I19" s="17">
         <v>7</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J19" s="17">
         <v>8</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K19" s="17">
         <v>9</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L19" s="17">
         <v>10</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M19" s="17">
         <v>11</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N19" s="17">
         <v>12</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O19" s="17">
         <v>13</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P19" s="17">
         <v>14</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q19" s="17">
         <v>15</v>
       </c>
+      <c r="R19" s="17">
+        <v>16</v>
+      </c>
+      <c r="S19" s="17">
+        <v>17</v>
+      </c>
+      <c r="T19" s="17">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="I20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H21" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="I21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C23" s="17">
         <v>3</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D23" s="17">
         <v>3</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E23" s="17">
         <v>3</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F23" s="17">
         <v>3</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G23" s="17">
         <v>2.5</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H23" s="17">
         <v>2</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="I23" s="17">
+        <f>2+1.5+1</f>
+        <v>4.5</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="17">
-        <f>SUM(C2:K5) -C14</f>
+      <c r="C24" s="17">
+        <f>SUM(C2:K5) -C23+C7+C10+C12</f>
+        <v>44</v>
+      </c>
+      <c r="D24" s="17">
+        <f>C24 -D23</f>
+        <v>41</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" ref="E24:Q24" si="0">D24 -E23</f>
+        <v>38</v>
+      </c>
+      <c r="F24" s="17">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="H24" s="17">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D15" s="17">
-        <f>C15 -D14</f>
-        <v>23</v>
-      </c>
-      <c r="E15" s="17">
-        <f t="shared" ref="E15:Q15" si="0">D15 -E14</f>
-        <v>20</v>
-      </c>
-      <c r="F15" s="17">
+      <c r="J24" s="17">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="G15" s="17">
+        <v>26</v>
+      </c>
+      <c r="K24" s="17">
         <f t="shared" si="0"/>
-        <v>14.5</v>
-      </c>
-      <c r="H15" s="17">
+        <v>26</v>
+      </c>
+      <c r="L24" s="17">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="I15" s="17">
+        <v>26</v>
+      </c>
+      <c r="M24" s="17">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="J15" s="17">
+        <v>26</v>
+      </c>
+      <c r="N24" s="17">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="K15" s="17">
+        <v>26</v>
+      </c>
+      <c r="O24" s="17">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="L15" s="17">
+        <v>26</v>
+      </c>
+      <c r="P24" s="17">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="M15" s="17">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="17">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="N15" s="17">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="O15" s="17">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="P15" s="17">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q15" s="17">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>26</v>
+      </c>
+      <c r="R24" s="17">
+        <f t="shared" ref="R24" si="1">Q24 -R23</f>
+        <v>26</v>
+      </c>
+      <c r="S24" s="17">
+        <f t="shared" ref="S24" si="2">R24 -S23</f>
+        <v>26</v>
+      </c>
+      <c r="T24" s="17">
+        <f t="shared" ref="T24" si="3">S24 -T23</f>
+        <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C25" s="17">
+        <f>C24</f>
+        <v>44</v>
+      </c>
+      <c r="D25" s="17">
+        <f>C25-2.5</f>
+        <v>41.5</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" ref="E25:Q25" si="4">D25-2.5</f>
+        <v>39</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="4"/>
+        <v>36.5</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="4"/>
+        <v>31.5</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="4"/>
         <v>26.5</v>
       </c>
-      <c r="D16" s="17">
-        <f>C16-2</f>
-        <v>24.5</v>
-      </c>
-      <c r="E16" s="17">
-        <f t="shared" ref="E16:Q16" si="1">D16-2</f>
-        <v>22.5</v>
-      </c>
-      <c r="F16" s="17">
-        <f t="shared" si="1"/>
-        <v>20.5</v>
-      </c>
-      <c r="G16" s="17">
-        <f t="shared" si="1"/>
-        <v>18.5</v>
-      </c>
-      <c r="H16" s="17">
-        <f t="shared" si="1"/>
+      <c r="K25" s="17">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="L25" s="17">
+        <f t="shared" si="4"/>
+        <v>21.5</v>
+      </c>
+      <c r="M25" s="17">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="N25" s="17">
+        <f t="shared" si="4"/>
         <v>16.5</v>
       </c>
-      <c r="I16" s="17">
-        <f t="shared" si="1"/>
-        <v>14.5</v>
-      </c>
-      <c r="J16" s="17">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-      <c r="K16" s="17">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
-      </c>
-      <c r="L16" s="17">
-        <f t="shared" si="1"/>
-        <v>8.5</v>
-      </c>
-      <c r="M16" s="17">
-        <f t="shared" si="1"/>
+      <c r="O25" s="17">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="P25" s="17">
+        <f t="shared" si="4"/>
+        <v>11.5</v>
+      </c>
+      <c r="Q25" s="17">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="R25" s="17">
+        <f t="shared" ref="R25:T25" si="5">Q25-2.5</f>
         <v>6.5</v>
       </c>
-      <c r="N16" s="17">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="O16" s="17">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="P16" s="17">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q16" s="17">
-        <f t="shared" si="1"/>
-        <v>-1.5</v>
+      <c r="S25" s="17">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T25" s="17">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.25">

--- a/burndown.xlsx
+++ b/burndown.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Fonctionnalités</t>
   </si>
@@ -172,13 +172,19 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>FA6</t>
+  </si>
+  <si>
+    <t>FBD1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +217,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -423,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -473,6 +485,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,58 +683,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,58 +832,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.5</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.5</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.5</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.5</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.5</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -883,11 +898,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="133431680"/>
-        <c:axId val="133433600"/>
+        <c:axId val="118685696"/>
+        <c:axId val="118687616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133431680"/>
+        <c:axId val="118685696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,12 +912,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133433600"/>
+        <c:crossAx val="118687616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133433600"/>
+        <c:axId val="118687616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133431680"/>
+        <c:crossAx val="118685696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -945,8 +960,8 @@
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>470646</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>707572</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:to>
@@ -1286,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1383,7 @@
       <c r="G3" s="19">
         <v>2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="19">
         <v>3</v>
       </c>
       <c r="I3" s="10">
@@ -1383,8 +1398,8 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19">
-        <v>3</v>
+      <c r="C4" s="21">
+        <v>4</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -1607,8 +1622,12 @@
       <c r="I20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="J20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>1</v>
+      </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
@@ -1636,8 +1655,12 @@
       <c r="I21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="J21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
@@ -1663,7 +1686,9 @@
       <c r="I22" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="17"/>
+      <c r="J22" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -1701,7 +1726,10 @@
         <f>2+1.5+1</f>
         <v>4.5</v>
       </c>
-      <c r="J23" s="17"/>
+      <c r="J23" s="17">
+        <f>3+1+1</f>
+        <v>5</v>
+      </c>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
@@ -1719,75 +1747,75 @@
       </c>
       <c r="C24" s="17">
         <f>SUM(C2:K5) -C23+C7+C10+C12</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="17">
         <f>C24 -D23</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="17">
         <f t="shared" ref="E24:Q24" si="0">D24 -E23</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F24" s="17">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" s="17">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>33.5</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="0"/>
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
       <c r="I24" s="17">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J24" s="17">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K24" s="17">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L24" s="17">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M24" s="17">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O24" s="17">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P24" s="17">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="17">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R24" s="17">
         <f t="shared" ref="R24" si="1">Q24 -R23</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="S24" s="17">
         <f t="shared" ref="S24" si="2">R24 -S23</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T24" s="17">
         <f t="shared" ref="T24" si="3">S24 -T23</f>
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
@@ -1796,75 +1824,75 @@
       </c>
       <c r="C25" s="17">
         <f>C24</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" s="17">
         <f>C25-2.5</f>
-        <v>41.5</v>
+        <v>42.5</v>
       </c>
       <c r="E25" s="17">
         <f t="shared" ref="E25:Q25" si="4">D25-2.5</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F25" s="17">
         <f t="shared" si="4"/>
-        <v>36.5</v>
+        <v>37.5</v>
       </c>
       <c r="G25" s="17">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="4"/>
-        <v>31.5</v>
+        <v>32.5</v>
       </c>
       <c r="I25" s="17">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J25" s="17">
         <f t="shared" si="4"/>
-        <v>26.5</v>
+        <v>27.5</v>
       </c>
       <c r="K25" s="17">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L25" s="17">
         <f t="shared" si="4"/>
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
       <c r="M25" s="17">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N25" s="17">
         <f t="shared" si="4"/>
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="O25" s="17">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P25" s="17">
         <f t="shared" si="4"/>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Q25" s="17">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R25" s="17">
         <f t="shared" ref="R25:T25" si="5">Q25-2.5</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="S25" s="17">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T25" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.25">

--- a/burndown.xlsx
+++ b/burndown.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Fonctionnalités</t>
   </si>
@@ -178,13 +178,19 @@
   </si>
   <si>
     <t>FBD1</t>
+  </si>
+  <si>
+    <t>Total :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fait : </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,27 +215,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +265,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -339,10 +338,150 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -351,81 +490,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -435,57 +503,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -707,34 +782,34 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,11 +973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="118685696"/>
-        <c:axId val="118687616"/>
+        <c:axId val="131268608"/>
+        <c:axId val="131270528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118685696"/>
+        <c:axId val="131268608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,12 +987,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118687616"/>
+        <c:crossAx val="131270528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118687616"/>
+        <c:axId val="131270528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,7 +1003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118685696"/>
+        <c:crossAx val="131268608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1302,7 +1377,7 @@
   <dimension ref="B1:T1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,153 +1395,162 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="13">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="16">
         <v>1.5</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <v>1</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="17">
         <v>1</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="17">
         <v>2</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <v>3</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="18">
         <v>3</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11">
+      <c r="J3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="16">
         <v>4</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="18">
         <v>1</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="18">
         <v>2</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="18">
         <v>1</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="20">
         <v>2</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="21">
         <v>1.5</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="21">
         <v>1</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="7">
+        <f>SUM(C2:K5)</f>
+        <v>30</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="7">
+        <f>C3+D3+E3+F3+G3+H3+C4+C5+D5+G5</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C8" s="6">
         <v>9</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1475,422 +1559,427 @@
       <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="17" t="s">
+      <c r="O18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q18" s="17" t="s">
+      <c r="Q18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R18" s="17" t="s">
+      <c r="R18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S18" s="17" t="s">
+      <c r="S18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="T18" s="17" t="s">
+      <c r="T18" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="5">
         <v>2</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="5">
         <v>3</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="5">
         <v>4</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="5">
         <v>5</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="5">
         <v>6</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="5">
         <v>7</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="5">
         <v>8</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="5">
         <v>9</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="5">
         <v>10</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="5">
         <v>11</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="5">
         <v>12</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="5">
         <v>13</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P19" s="5">
         <v>14</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="5">
         <v>15</v>
       </c>
-      <c r="R19" s="17">
+      <c r="R19" s="5">
         <v>16</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="5">
         <v>17</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T19" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17" t="s">
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
+      <c r="K22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="5">
         <v>3</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="5">
         <v>3</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="5">
         <v>3</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="5">
         <v>3</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="5">
         <v>2.5</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="5">
         <v>2</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="5">
         <f>2+1.5+1</f>
         <v>4.5</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="5">
         <f>3+1+1</f>
         <v>5</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
+      <c r="K23" s="5">
+        <f>1+1+1</f>
+        <v>3</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="17">
-        <f>SUM(C2:K5) -C23+C7+C10+C12</f>
+      <c r="C24" s="5">
+        <f>SUM(C2:K5) -C23+C8+C10+C12</f>
         <v>45</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="5">
         <f>C24 -D23</f>
         <v>42</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="5">
         <f t="shared" ref="E24:Q24" si="0">D24 -E23</f>
         <v>39</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="5">
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="5">
         <f t="shared" si="0"/>
         <v>31.5</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="5">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="L24" s="17">
+        <v>19</v>
+      </c>
+      <c r="L24" s="5">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="M24" s="17">
+        <v>19</v>
+      </c>
+      <c r="M24" s="5">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="N24" s="17">
+        <v>19</v>
+      </c>
+      <c r="N24" s="5">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="O24" s="17">
+        <v>19</v>
+      </c>
+      <c r="O24" s="5">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="P24" s="17">
+        <v>19</v>
+      </c>
+      <c r="P24" s="5">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="Q24" s="17">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="5">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="R24" s="17">
+        <v>19</v>
+      </c>
+      <c r="R24" s="5">
         <f t="shared" ref="R24" si="1">Q24 -R23</f>
-        <v>22</v>
-      </c>
-      <c r="S24" s="17">
+        <v>19</v>
+      </c>
+      <c r="S24" s="5">
         <f t="shared" ref="S24" si="2">R24 -S23</f>
-        <v>22</v>
-      </c>
-      <c r="T24" s="17">
+        <v>19</v>
+      </c>
+      <c r="T24" s="5">
         <f t="shared" ref="T24" si="3">S24 -T23</f>
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="5">
         <f>C24</f>
         <v>45</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="5">
         <f>C25-2.5</f>
         <v>42.5</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="5">
         <f t="shared" ref="E25:Q25" si="4">D25-2.5</f>
         <v>40</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="5">
         <f t="shared" si="4"/>
         <v>37.5</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="5">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="5">
         <f t="shared" si="4"/>
         <v>32.5</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="5">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="5">
         <f t="shared" si="4"/>
         <v>27.5</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="5">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="5">
         <f t="shared" si="4"/>
         <v>22.5</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="5">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="5">
         <f t="shared" si="4"/>
         <v>17.5</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O25" s="5">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P25" s="5">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="Q25" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="R25" s="17">
+      <c r="R25" s="5">
         <f t="shared" ref="R25:T25" si="5">Q25-2.5</f>
         <v>7.5</v>
       </c>
-      <c r="S25" s="17">
+      <c r="S25" s="5">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="T25" s="17">
+      <c r="T25" s="5">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>

--- a/burndown.xlsx
+++ b/burndown.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>Fonctionnalités</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fait : </t>
+  </si>
+  <si>
+    <t>FA9</t>
   </si>
 </sst>
 </file>
@@ -545,9 +548,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,6 +561,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -785,31 +788,31 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,11 +976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="131268608"/>
-        <c:axId val="131270528"/>
+        <c:axId val="130736128"/>
+        <c:axId val="130738048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131268608"/>
+        <c:axId val="130736128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -987,12 +990,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131270528"/>
+        <c:crossAx val="130738048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131270528"/>
+        <c:axId val="130738048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,7 +1006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131268608"/>
+        <c:crossAx val="130736128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1376,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1470,7 @@
       <c r="J3" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="24">
         <v>2</v>
       </c>
     </row>
@@ -1497,25 +1500,25 @@
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>2</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>1.5</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>1</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
@@ -1529,8 +1532,8 @@
         <v>55</v>
       </c>
       <c r="F6" s="7">
-        <f>C3+D3+E3+F3+G3+H3+C4+C5+D5+G5</f>
-        <v>18</v>
+        <f>C3+D3+E3+F3+G3+H3+C4+C5+D5+G5+K3</f>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1712,7 +1715,9 @@
       <c r="K20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -1820,7 +1825,10 @@
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="L23" s="5"/>
+      <c r="L23" s="5">
+        <f>2</f>
+        <v>2</v>
+      </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -1872,39 +1880,39 @@
       </c>
       <c r="L24" s="5">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M24" s="5">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N24" s="5">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O24" s="5">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P24" s="5">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="5">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R24" s="5">
         <f t="shared" ref="R24" si="1">Q24 -R23</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S24" s="5">
         <f t="shared" ref="S24" si="2">R24 -S23</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T24" s="5">
         <f t="shared" ref="T24" si="3">S24 -T23</f>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">

--- a/burndown.xlsx
+++ b/burndown.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>Fonctionnalités</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Préparation soutenance</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>FA6</t>
   </si>
   <si>
@@ -187,6 +184,24 @@
   </si>
   <si>
     <t>FA9</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>FA7</t>
+  </si>
+  <si>
+    <t>FI2</t>
+  </si>
+  <si>
+    <t>FI3</t>
+  </si>
+  <si>
+    <t>FI4</t>
+  </si>
+  <si>
+    <t>scheme</t>
   </si>
 </sst>
 </file>
@@ -225,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +289,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -506,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,9 +551,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,6 +582,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -761,58 +785,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>33.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>31.5</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,58 +934,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.5</c:v>
+                  <c:v>44.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>41.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.5</c:v>
+                  <c:v>38.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>35.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.5</c:v>
+                  <c:v>33.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>30.200000000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.5</c:v>
+                  <c:v>27.400000000000013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>24.600000000000012</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.5</c:v>
+                  <c:v>23.300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>20.500000000000011</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.5</c:v>
+                  <c:v>17.70000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>14.900000000000009</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.5</c:v>
+                  <c:v>12.100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>9.3000000000000078</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.5</c:v>
+                  <c:v>6.500000000000008</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>3.7000000000000082</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5</c:v>
+                  <c:v>0.90000000000000835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -976,11 +1000,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="130736128"/>
-        <c:axId val="130738048"/>
+        <c:axId val="132284416"/>
+        <c:axId val="132286336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130736128"/>
+        <c:axId val="132284416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,12 +1014,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130738048"/>
+        <c:crossAx val="132286336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130738048"/>
+        <c:axId val="132286336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,7 +1030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130736128"/>
+        <c:crossAx val="132284416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1380,7 +1404,7 @@
   <dimension ref="B1:T1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,47 +1454,47 @@
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="25">
         <v>3</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>1.5</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>1</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>1</v>
       </c>
-      <c r="G3" s="17">
-        <v>2</v>
-      </c>
-      <c r="H3" s="17">
+      <c r="G3" s="16">
         <v>3</v>
       </c>
-      <c r="I3" s="18">
+      <c r="H3" s="16">
         <v>3</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="24">
+      <c r="I3" s="16">
+        <v>3</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="23">
         <v>2</v>
       </c>
     </row>
@@ -1478,62 +1502,62 @@
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16">
-        <v>4</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="C4" s="15">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>2</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>1</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>2</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>1.5</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="20">
+      <c r="E5" s="20">
         <v>1</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
+      <c r="F5" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="7">
         <f>SUM(C2:K5)</f>
-        <v>30</v>
+        <v>33.5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="7">
         <f>C3+D3+E3+F3+G3+H3+C4+C5+D5+G5+K3</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1710,17 +1734,23 @@
         <v>40</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -1750,9 +1780,15 @@
       <c r="K21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -1776,14 +1812,20 @@
         <v>41</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -1805,12 +1847,15 @@
         <v>3</v>
       </c>
       <c r="F23" s="5">
+        <f>1+1+1</f>
         <v>3</v>
       </c>
       <c r="G23" s="5">
+        <f>0.5+1+1</f>
         <v>2.5</v>
       </c>
       <c r="H23" s="5">
+        <f>1+1</f>
         <v>2</v>
       </c>
       <c r="I23" s="5">
@@ -1826,12 +1871,20 @@
         <v>3</v>
       </c>
       <c r="L23" s="5">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+        <f>2+1+1</f>
+        <v>4</v>
+      </c>
+      <c r="M23" s="24">
+        <f>3+1+1</f>
+        <v>5</v>
+      </c>
+      <c r="N23" s="5">
+        <f>2+1+1.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="O23" s="5">
+        <v>3</v>
+      </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -1843,76 +1896,76 @@
         <v>44</v>
       </c>
       <c r="C24" s="5">
-        <f>SUM(C2:K5) -C23+C8+C10+C12</f>
-        <v>45</v>
+        <f>C6-C23+C8+C10+C12-E5-F5</f>
+        <v>47</v>
       </c>
       <c r="D24" s="5">
         <f>C24 -D23</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ref="E24:Q24" si="0">D24 -E23</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
-        <v>33.5</v>
+        <v>35.5</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="0"/>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K24" s="5">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>K24 -L23+E5+F5</f>
+        <v>18.5</v>
       </c>
       <c r="M24" s="5">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="N24" s="5">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O24" s="5">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="P24" s="5">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Q24" s="5">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="R24" s="5">
         <f t="shared" ref="R24" si="1">Q24 -R23</f>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="S24" s="5">
         <f t="shared" ref="S24" si="2">R24 -S23</f>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="T24" s="5">
         <f t="shared" ref="T24" si="3">S24 -T23</f>
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
@@ -1921,75 +1974,75 @@
       </c>
       <c r="C25" s="5">
         <f>C24</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D25" s="5">
-        <f>C25-2.5</f>
-        <v>42.5</v>
+        <f>C25-2.8</f>
+        <v>44.2</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" ref="E25:Q25" si="4">D25-2.5</f>
-        <v>40</v>
+        <f t="shared" ref="E25:T25" si="4">D25-2.8</f>
+        <v>41.400000000000006</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="4"/>
-        <v>37.5</v>
+        <v>38.600000000000009</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>35.800000000000011</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="4"/>
-        <v>32.5</v>
+        <v>33.000000000000014</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>30.200000000000014</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" si="4"/>
-        <v>27.5</v>
+        <v>27.400000000000013</v>
       </c>
       <c r="K25" s="5">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>24.600000000000012</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="4"/>
-        <v>22.5</v>
+        <f>K25-2.8+E5+F5</f>
+        <v>23.300000000000011</v>
       </c>
       <c r="M25" s="5">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>20.500000000000011</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" si="4"/>
-        <v>17.5</v>
+        <v>17.70000000000001</v>
       </c>
       <c r="O25" s="5">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>14.900000000000009</v>
       </c>
       <c r="P25" s="5">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>12.100000000000009</v>
       </c>
       <c r="Q25" s="5">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9.3000000000000078</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" ref="R25:T25" si="5">Q25-2.5</f>
-        <v>7.5</v>
+        <f t="shared" si="4"/>
+        <v>6.500000000000008</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3.7000000000000082</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
+        <f t="shared" si="4"/>
+        <v>0.90000000000000835</v>
       </c>
     </row>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.25">

--- a/burndown.xlsx
+++ b/burndown.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Fonctionnalités</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>scheme</t>
+  </si>
+  <si>
+    <t>Clarification du code</t>
   </si>
 </sst>
 </file>
@@ -240,18 +243,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -527,67 +524,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -821,22 +812,22 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -937,55 +928,55 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.2</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.400000000000006</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.600000000000009</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.800000000000011</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.000000000000014</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.200000000000014</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.400000000000013</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.600000000000012</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.300000000000011</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.500000000000011</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.70000000000001</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.900000000000009</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.100000000000009</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.3000000000000078</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.500000000000008</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.7000000000000082</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.90000000000000835</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,11 +991,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="132284416"/>
-        <c:axId val="132286336"/>
+        <c:axId val="133403392"/>
+        <c:axId val="133405312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="132284416"/>
+        <c:axId val="133403392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,12 +1005,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132286336"/>
+        <c:crossAx val="133405312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="132286336"/>
+        <c:axId val="133405312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,7 +1021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132284416"/>
+        <c:crossAx val="133403392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1403,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1445,7 @@
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="23">
         <v>3</v>
       </c>
       <c r="D2" s="13"/>
@@ -1494,7 +1485,7 @@
       <c r="J3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="21">
         <v>2</v>
       </c>
     </row>
@@ -1508,10 +1499,10 @@
       <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>1</v>
       </c>
       <c r="G4" s="13"/>
@@ -1524,25 +1515,25 @@
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>2</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>1.5</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>1</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>0.5</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>1</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
@@ -1556,8 +1547,8 @@
         <v>54</v>
       </c>
       <c r="F6" s="7">
-        <f>C3+D3+E3+F3+G3+H3+C4+C5+D5+G5+K3</f>
-        <v>22</v>
+        <f>33.5</f>
+        <v>33.5</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1590,6 +1581,15 @@
         <v>6</v>
       </c>
     </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6</v>
+      </c>
+    </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>32</v>
@@ -1742,7 +1742,7 @@
       <c r="L20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="22" t="s">
         <v>57</v>
       </c>
       <c r="N20" s="5" t="s">
@@ -1783,7 +1783,7 @@
       <c r="L21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="24" t="s">
+      <c r="M21" s="22" t="s">
         <v>58</v>
       </c>
       <c r="N21" s="5" t="s">
@@ -1820,7 +1820,7 @@
       <c r="L22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="M22" s="22" t="s">
         <v>1</v>
       </c>
       <c r="N22" s="5" t="s">
@@ -1874,7 +1874,7 @@
         <f>2+1+1</f>
         <v>4</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="22">
         <f>3+1+1</f>
         <v>5</v>
       </c>
@@ -1944,28 +1944,28 @@
         <v>9</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>N24 -O23+C14</f>
+        <v>12</v>
       </c>
       <c r="P24" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R24" s="5">
         <f t="shared" ref="R24" si="1">Q24 -R23</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S24" s="5">
         <f t="shared" ref="S24" si="2">R24 -S23</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T24" s="5">
         <f t="shared" ref="T24" si="3">S24 -T23</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
@@ -1977,72 +1977,72 @@
         <v>47</v>
       </c>
       <c r="D25" s="5">
-        <f>C25-2.8</f>
-        <v>44.2</v>
+        <f>C25-3</f>
+        <v>44</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" ref="E25:T25" si="4">D25-2.8</f>
-        <v>41.400000000000006</v>
+        <f t="shared" ref="E25:T25" si="4">D25-3</f>
+        <v>41</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="4"/>
-        <v>38.600000000000009</v>
+        <v>38</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="4"/>
-        <v>35.800000000000011</v>
+        <v>35</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="4"/>
-        <v>33.000000000000014</v>
+        <v>32</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="4"/>
-        <v>30.200000000000014</v>
+        <v>29</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" si="4"/>
-        <v>27.400000000000013</v>
+        <v>26</v>
       </c>
       <c r="K25" s="5">
         <f t="shared" si="4"/>
-        <v>24.600000000000012</v>
+        <v>23</v>
       </c>
       <c r="L25" s="5">
-        <f>K25-2.8+E5+F5</f>
-        <v>23.300000000000011</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="M25" s="5">
         <f t="shared" si="4"/>
-        <v>20.500000000000011</v>
+        <v>17</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" si="4"/>
-        <v>17.70000000000001</v>
+        <v>14</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="4"/>
-        <v>14.900000000000009</v>
+        <f>N25-3+C14</f>
+        <v>17</v>
       </c>
       <c r="P25" s="5">
         <f t="shared" si="4"/>
-        <v>12.100000000000009</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="5">
         <f t="shared" si="4"/>
-        <v>9.3000000000000078</v>
+        <v>11</v>
       </c>
       <c r="R25" s="5">
         <f t="shared" si="4"/>
-        <v>6.500000000000008</v>
+        <v>8</v>
       </c>
       <c r="S25" s="5">
         <f t="shared" si="4"/>
-        <v>3.7000000000000082</v>
+        <v>5</v>
       </c>
       <c r="T25" s="5">
         <f t="shared" si="4"/>
-        <v>0.90000000000000835</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048576" spans="16:16" x14ac:dyDescent="0.25">

--- a/burndown.xlsx
+++ b/burndown.xlsx
@@ -1394,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49:R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
